--- a/docs/source/recursos/pec_bovino/tabla_bov_exclusion.xlsx
+++ b/docs/source/recursos/pec_bovino/tabla_bov_exclusion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\pec_bovino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680B67B9-86F6-42E8-AC4D-8C5D86F0E55D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73C6EFF-E089-4F97-9107-8A430DC48CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1B333B31-9E68-4B9D-A7A3-DAE2744918C8}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7890" xr2:uid="{1B333B31-9E68-4B9D-A7A3-DAE2744918C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Acuícola</t>
-  </si>
-  <si>
-    <t>Asentamiento humano</t>
   </si>
   <si>
     <t>Cuerpo de agua</t>
@@ -426,17 +423,17 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -453,7 +450,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -463,7 +460,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -473,7 +470,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -483,7 +480,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -493,7 +490,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -503,7 +500,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -512,18 +509,12 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="3"/>
     </row>
@@ -560,8 +551,8 @@
       <c r="D18" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D18">
-    <sortCondition descending="1" ref="D2:D18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
+    <sortCondition descending="1" ref="D2:D17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/source/recursos/pec_bovino/tabla_bov_exclusion.xlsx
+++ b/docs/source/recursos/pec_bovino/tabla_bov_exclusion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\pec_bovino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73C6EFF-E089-4F97-9107-8A430DC48CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD5CCB7-395C-40EF-98B3-D019C9CB1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7890" xr2:uid="{1B333B31-9E68-4B9D-A7A3-DAE2744918C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1B333B31-9E68-4B9D-A7A3-DAE2744918C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Acuícola</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Categoría</t>
+  </si>
+  <si>
+    <t>ND</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,8 +512,12 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3"/>
     </row>
